--- a/biology/Botanique/Olea_europaea/Olea_europaea.xlsx
+++ b/biology/Botanique/Olea_europaea/Olea_europaea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olea europaea est une espèce d’arbres ou d'arbustes de la famille des Oleaceae répandue à travers l'Afrique, l'Asie et l'Europe méditerranéenne et dont une variété a été domestiquée et cultivée pour devenir l'olivier. Au cours de l'histoire de la botanique, de nombreuses sous-espèces ont été décrites.
 </t>
@@ -511,9 +523,11 @@
           <t>Nouvelle classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La dernière révision du genre Olea en 2002[1] n'en distingue cependant plus que six :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La dernière révision du genre Olea en 2002 n'en distingue cependant plus que six :
 Olea europaea subsp. europaea, caractéristique du bassin méditerranéen, dont la variété cultivée (var. europaea) est l'olivier et dont les variétés sauvages et férales (var. sylvestris) sont désignées sous le nom d'oléastres,
 Olea europaea subsp. cuspidata (Wall. &amp; G.Don) Cif. (1942), la sous-espèce la plus largement répandue dans le monde (sous-espèce ubiquiste), présente dans toute l'Afrique y compris les Mascareignes, et dans de nombreuses régions sèches d'Asie, depuis l'Arabie jusqu'en Chine,
 Olea europaea subsp. cerasiformis G.Kunkel &amp; Sunding (1972), endémique de Madère,
@@ -547,10 +561,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les représentants de l'espèce Olea europaea sont des buissons, arbustes ou arbres sempervirents (toujours verts) pouvant atteindre jusqu'à 15 m de hauteur. Les rameaux sont parsemés d'écailles peltées. Le feuillage est persistant, les feuilles sont opposées, entières et elliptiques, coriaces et parsemées de poils écailleux, plus ou moins étroites, longues de 3 à 9 cm.
-Les fleurs, blanches ou jaunâtres, sont groupées en panicules axillaires. Le calice soudé, à 4 lobes triangulaires, est court. Les corolles forment des tubes à 4 pétales. Les étamines sont au nombre de deux. L'ovaire supère est de forme conique plus ou moins renflée. Les fruits sont des drupes charnues à noyau dur, longues de 5 mm à 4 cm, qui deviennent noires à maturité[1].
+Les fleurs, blanches ou jaunâtres, sont groupées en panicules axillaires. Le calice soudé, à 4 lobes triangulaires, est court. Les corolles forment des tubes à 4 pétales. Les étamines sont au nombre de deux. L'ovaire supère est de forme conique plus ou moins renflée. Les fruits sont des drupes charnues à noyau dur, longues de 5 mm à 4 cm, qui deviennent noires à maturité.
 </t>
         </is>
       </c>
@@ -579,9 +595,11 @@
           <t>Phénologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La pollinisation est anémophile : elle est assurée par le vent. Le pollen est allergisant :  dans les régions plantées en oliviers, la forte présence dans l'air de pollen d'Olea europaea pendant la période de floraison (de mai à fin juin dans l'hémisphère nord) est une cause importante d'allergies chez les sujets sensibles[2],[3],[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pollinisation est anémophile : elle est assurée par le vent. Le pollen est allergisant :  dans les régions plantées en oliviers, la forte présence dans l'air de pollen d'Olea europaea pendant la période de floraison (de mai à fin juin dans l'hémisphère nord) est une cause importante d'allergies chez les sujets sensibles.
 </t>
         </is>
       </c>
